--- a/data/flow cell samples/cell_list.xlsx
+++ b/data/flow cell samples/cell_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnkassa/Desktop/FLOW1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnkassa/Desktop/PNNL_synthetic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF6B99-F116-AC48-A5E9-4020D7D3CEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ADBE42-F578-7749-A080-B056C02A8132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="700" windowWidth="26740" windowHeight="15360" xr2:uid="{54F315E0-D5C7-7849-A224-00D177E2EE24}"/>
+    <workbookView xWindow="27040" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{EA55358D-5091-D84E-BFA5-4E3F21CC7D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>file_id</t>
   </si>
   <si>
+    <t>cell_id</t>
+  </si>
+  <si>
     <t>flow pattern</t>
   </si>
   <si>
@@ -92,43 +95,19 @@
     <t>file_type</t>
   </si>
   <si>
-    <t>PNNL Flow_data_02</t>
-  </si>
-  <si>
-    <t>PNNL_interdigitated_10cm2_N212_V3+/V5+_rate</t>
-  </si>
-  <si>
-    <t>interdigitated</t>
-  </si>
-  <si>
-    <t>GFD4.6</t>
-  </si>
-  <si>
-    <t>N212</t>
-  </si>
-  <si>
-    <t>V3+</t>
-  </si>
-  <si>
-    <t>V5+</t>
-  </si>
-  <si>
-    <t>Rate performance</t>
-  </si>
-  <si>
-    <t>PNNL</t>
-  </si>
-  <si>
-    <t>arbin</t>
-  </si>
-  <si>
-    <t>cycle</t>
-  </si>
-  <si>
-    <t>xlsx</t>
-  </si>
-  <si>
-    <t>cell_id</t>
+    <t>pnnl_synthetic</t>
+  </si>
+  <si>
+    <t>ezbatt_10000</t>
+  </si>
+  <si>
+    <t>bao_ezbatt</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -514,16 +493,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4802034C-7492-6544-9AF0-63A0E4031299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597520F3-2BAF-C24C-A6CA-1E417DD45053}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -531,118 +510,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
